--- a/Excel Lec/Lookups/day 2.xlsx
+++ b/Excel Lec/Lookups/day 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel Lec\Lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB66BB-E941-4381-BFD2-9CDFEA26B0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE3623-AC08-4C22-9B31-6731C95F917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
   <si>
     <t>S No</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>5 kg</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -734,8 +740,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,8 +1225,26 @@
       <c r="H16" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1245,8 +1269,24 @@
       <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L17" s="1" t="str">
+        <f t="array" ref="L17:P17">VLOOKUP(K16,C3:H18,{2,3,4,5,6},FALSE)</f>
+        <v>Ramesh</v>
+      </c>
+      <c r="M17" s="1">
+        <v>8787962353</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <v>Paper</v>
+      </c>
+      <c r="O17" s="1">
+        <v>483549</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <v>R-54 ABC Street</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1281,6 +1321,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16" xr:uid="{BDFCFD35-08FB-4A41-8485-EB5CBB6E6A4C}">
+      <formula1>$C$4:$C$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,16 +2116,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AC383A-B968-4AAE-8850-CA5AF92EE10A}">
-  <dimension ref="A4:L16"/>
+  <dimension ref="A4:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2367,12 +2413,35 @@
         <v>78</v>
       </c>
     </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <f>INDEX(C5:F14,MATCH(J19,B5:B14,0),MATCH(K19,C4:F4,0))</f>
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15 J16" xr:uid="{7ED5CC78-1DAC-4340-B36B-51C6BFA2BD24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15 J16 J19" xr:uid="{7ED5CC78-1DAC-4340-B36B-51C6BFA2BD24}">
       <formula1>$B$5:$B$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16" xr:uid="{D952F541-4020-4DB6-BB7F-855CF394D085}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16 K19" xr:uid="{D952F541-4020-4DB6-BB7F-855CF394D085}">
       <formula1>$C$4:$F$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel Lec/Lookups/day 2.xlsx
+++ b/Excel Lec/Lookups/day 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\Lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navne\OneDrive - GN Group Of Institutes\Desktop\Anudip github\Anudip-LA\Excel Lec\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE3623-AC08-4C22-9B31-6731C95F917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9BF174-08FC-4ABD-A7D5-FC90A26A8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -363,8 +363,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -443,13 +443,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -740,8 +740,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,7 +1604,7 @@
   <dimension ref="A4:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ADB16-F461-4173-8E7C-E2819D9A34B7}">
   <dimension ref="A6:K16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F16"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AC383A-B968-4AAE-8850-CA5AF92EE10A}">
   <dimension ref="A4:L19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
